--- a/Лекции/Экзамены/ММПЭ/решение.xlsx
+++ b/Лекции/Экзамены/ММПЭ/решение.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Первая контрольная" sheetId="1" r:id="rId1"/>
     <sheet name="Вторая контрольная" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -399,6 +399,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -446,7 +449,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,7 +484,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -692,13 +695,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,25 +726,25 @@
       <c r="M1" s="7"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <f>D2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14">
         <v>3</v>
       </c>
-      <c r="D2" s="14">
-        <v>3</v>
-      </c>
-      <c r="F2" s="14">
-        <v>4</v>
-      </c>
       <c r="H2" s="18">
         <v>1</v>
       </c>
       <c r="I2" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K2" s="3">
         <f>H2</f>
@@ -757,16 +760,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="4">
         <f>D3</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="14">
         <v>4</v>
@@ -785,16 +788,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="4">
         <f>D4</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" s="14">
         <v>3</v>
@@ -807,25 +810,25 @@
       </c>
       <c r="M4" s="8">
         <f>I2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="6">
         <f>D5</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K5" s="5">
         <v>0</v>
@@ -838,11 +841,11 @@
       </c>
       <c r="N5" s="6">
         <f>I2</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -850,7 +853,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <f>A2</f>
         <v>1</v>
@@ -868,26 +871,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <f>B2</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" s="9">
         <f>B3</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="9">
         <f>B4</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" s="6">
         <f>B5</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -895,7 +898,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <f>$A$8*K2+$B$8*K3+$C$8*K4+$D$8*K5</f>
         <v>1</v>
@@ -906,33 +909,33 @@
       </c>
       <c r="C12" s="8">
         <f>$A$8*M2+$B$8*M3+$C$8*M4+$D$8*M5</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4">
         <f>$A$8*N2+$B$8*N3+$C$8*N4+$D$8*N5</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <f>$A$9*K2+$B$9*K3+$C$9*K4+$D$9*K5</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="9">
         <f>$A$9*L2+$B$9*L3+$C$9*L4+$D$9*L5</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="9">
         <f>$A$9*M2+$B$9*M3+$C$9*M4+$D$9*M5</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D13" s="6">
         <f>$A$9*N2+$B$9*N3+$C$9*N4+$D$9*N5</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -944,202 +947,202 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f>$A$12*A2+$B$12*A3+$C$12*A4+$D$12*A5</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B16" s="4">
         <f>$A$12*B2+$B$12*B3+$C$12*B4+$D$12*B5</f>
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D16" s="12">
         <f>A16*B17-B16*A17</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <f>$A$13*A2+$B$13*A3+$C$13*A5+$D$13*A4</f>
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B17" s="6">
         <f>$A$13*B2+$B$13*B3+$C$13*B5+$D$13*B4</f>
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <f>B17</f>
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="B20" s="4">
         <f>A17</f>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <f>B16</f>
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B21" s="6">
         <f>A16</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <f>A20</f>
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="B24" s="4">
         <f>B20*-1</f>
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <f>A21*-1</f>
-        <v>-46</v>
+        <v>-26</v>
       </c>
       <c r="B25" s="6">
         <f>B21</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <f>A24</f>
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="B28" s="4">
         <f>A25</f>
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <f>B24</f>
-        <v>-46</v>
+        <v>-26</v>
       </c>
       <c r="B29" s="6">
         <f>B25</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <f>1/$D$16*A28</f>
-        <v>8.9</v>
+        <v>0.73</v>
       </c>
       <c r="B32" s="4">
         <f>1/$D$16*B28</f>
-        <v>-2.3000000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <f>1/$D$16*A29</f>
-        <v>-2.3000000000000003</v>
+        <v>-0.13</v>
       </c>
       <c r="B33" s="6">
         <f>1/$D$16*B29</f>
-        <v>0.60000000000000009</v>
+        <v>0.03</v>
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <f>$A$12*F2+$B$12*F3+$C$12*F4+$D$12*F5</f>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="12">
         <f>$A$13*F2+$B$13*F3+$C$13*F4+$D$13*F5</f>
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>11</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="29">
         <f>A32*A36+B32*A37</f>
-        <v>8.4999999999999432</v>
+        <v>3.0999999999999979</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="30">
         <f>A33*A36+B33*A37</f>
-        <v>-1.5</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -1152,7 +1155,7 @@
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -1165,11 +1168,11 @@
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>30</v>
       </c>
@@ -1186,10 +1189,10 @@
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <f>F2</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" s="9">
         <f>F3</f>
@@ -1201,30 +1204,30 @@
       </c>
       <c r="D47" s="6">
         <f>F5</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G47" s="5">
         <f>A47*A2+B47*A3+C47*A4+D47*A5</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H47" s="6">
         <f>A47*B2+B47*B3+C47*B4+D47*B5</f>
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J47" s="12">
         <f>G47*A40+H47*A41</f>
-        <v>44.499999999999261</v>
+        <v>84.999999999999957</v>
       </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>31</v>
       </c>
       <c r="D48">
         <f>A47*F2+B47*F3+C47*F4+D47*F5</f>
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="E48" t="s">
         <v>32</v>
@@ -1233,80 +1236,80 @@
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>35</v>
       </c>
       <c r="B51">
         <f>D48-J47</f>
-        <v>0.50000000000073896</v>
+        <v>13.000000000000043</v>
       </c>
       <c r="D51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>41</v>
       </c>
       <c r="B52">
         <f>B51/(B43-B44)</f>
-        <v>0.25000000000036948</v>
+        <v>6.5000000000000213</v>
       </c>
       <c r="D52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B53" s="26">
         <f>A32*B52</f>
-        <v>2.2250000000032886</v>
+        <v>4.7450000000000152</v>
       </c>
       <c r="D53" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="27" t="s">
         <v>45</v>
       </c>
       <c r="B54" s="28">
         <f>B33*B52</f>
-        <v>0.15000000000022171</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.19500000000000065</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B58" s="26">
         <f>A40/SQRT(B53)</f>
-        <v>5.6984129468046731</v>
+        <v>1.4231267612951513</v>
       </c>
       <c r="D58" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="27" t="s">
         <v>47</v>
       </c>
       <c r="B59" s="28">
         <f>A41/SQRT(B54)</f>
-        <v>-3.8729833462045544</v>
+        <v>0.90582162731567495</v>
       </c>
     </row>
   </sheetData>
@@ -1318,13 +1321,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1349,21 +1352,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1377,8 +1380,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1398,7 +1401,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="24">
         <v>1</v>
       </c>
@@ -1455,27 +1458,27 @@
       </c>
       <c r="P7">
         <f>A18</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <f>A19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <f>A20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="24">
         <v>1</v>
       </c>
       <c r="B8" s="20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" ref="C8:C17" si="0">B8^2</f>
-        <v>1</v>
+        <f t="shared" ref="C8:C16" si="0">B8^2</f>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
         <f>B7</f>
@@ -1483,7 +1486,7 @@
       </c>
       <c r="F8" s="8">
         <f>B8</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="8">
         <f>B9</f>
@@ -1519,22 +1522,22 @@
       </c>
       <c r="O8" s="4">
         <f>B17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <f>B18</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <f>B19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <f>B20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="24">
         <v>1</v>
       </c>
@@ -1551,7 +1554,7 @@
       </c>
       <c r="F9" s="9">
         <f>C8</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="9">
         <f>C9</f>
@@ -1587,22 +1590,22 @@
       </c>
       <c r="O9" s="6">
         <f>C17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <f>C18</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <f>C19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <f>C20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="24">
         <v>1</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="24">
         <v>1</v>
       </c>
@@ -1631,7 +1634,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="24">
         <v>1</v>
       </c>
@@ -1644,7 +1647,7 @@
       </c>
       <c r="E12" s="3">
         <f>$E$7*A7+$F$7*A8+$G$7*A9+$H$7*A10+$I$7*A11+$J$7*A12+$K$7*A13+$L$7*A14+$M$7*A15+$N$7*A16+$O$7*A17+$P$7*A18+$Q$7*A19+$R$7*A20</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ref="F12:G12" si="1">$E$7*B7+$F$7*B8+$G$7*B9+$H$7*B10+$I$7*B11+$J$7*B12+$K$7*B13+$L$7*B14+$M$7*B15+$N$7*B16+$O$7*B17+$P$7*B18+$Q$7*B19+$R$7*B20</f>
@@ -1652,17 +1655,17 @@
       </c>
       <c r="G12" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <f>E12*F13*G14+F12*G13*E14+E13*F14*G12</f>
-        <v>208</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24">
         <v>1</v>
       </c>
@@ -1679,7 +1682,7 @@
       </c>
       <c r="F13" s="8">
         <f t="shared" ref="F13:G13" si="2">$E$8*B7+$F$8*B8+$G$8*B9+$H$8*B10+$I$8*B11+$J$8*B12+$K$8*B13+$L$8*B14+$M$8*B15+$N$8*B16+$O$8*B17+$P$8*B18+$Q$8*B19+$R$8*B20</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="2"/>
@@ -1687,13 +1690,13 @@
       </c>
       <c r="I13">
         <f>G12*F13*E14+G13*F14*E12+F12*E13*G14</f>
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="J13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="24">
         <v>1</v>
       </c>
@@ -1706,7 +1709,7 @@
       </c>
       <c r="E14" s="5">
         <f>$E$9*A7+$F$9*A8+$G$9*A9+$H$9*A10+$I$9*A11+$J$9*A12+$K$9*A13+$L$9*A14+$M$9*A15+$N$9*A16+$O$9*A17+$P$9*A18+$Q$9*A19+$R$9*A20</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" s="9">
         <f>$E$9*B7+$F$9*B8+$G$9*B9+$H$9*B10+$I$9*B11+$J$9*B12+$K$9*B13+$L$9*B14+$M$9*B15+$N$9*B16+$O$9*B17+$P$9*B18+$Q$9*B19+$R$9*B20</f>
@@ -1714,17 +1717,17 @@
       </c>
       <c r="G14" s="6">
         <f>$E$9*C7+$F$9*C8+$G$9*C9+$H$9*C10+$I$9*C11+$J$9*C12+$K$9*C13+$L$9*C14+$M$9*C15+$N$9*C16+$O$9*C17+$P$9*C18+$Q$9*C19+$R$9*C20</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14" s="23">
         <f>I12-I13</f>
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="24">
         <v>1</v>
       </c>
@@ -1739,7 +1742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="24">
         <v>1</v>
       </c>
@@ -1751,43 +1754,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="18">
         <v>1</v>
       </c>
       <c r="B17" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="6">
         <f>B17^2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" ref="C18:C20" si="3">B18^2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="24">
         <v>0</v>
       </c>
@@ -1799,8 +1802,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1823,7 +1826,7 @@
       <c r="Q22" s="7"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="24">
         <v>1</v>
       </c>
@@ -1891,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="24">
         <v>1</v>
       </c>
@@ -1959,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="24">
         <v>1</v>
       </c>
@@ -2027,7 +2030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="24">
         <v>1</v>
       </c>
@@ -2039,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="24">
         <v>1</v>
       </c>
@@ -2056,7 +2059,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="24">
         <v>1</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="24">
         <v>1</v>
       </c>
@@ -2118,7 +2121,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="24">
         <v>1</v>
       </c>
@@ -2134,7 +2137,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" ref="F30:G30" si="6">$E$25*B23+$F$25*B24+$G$25*B25+$H$25*B26+$I$25*B27+$J$25*B28+$K$25*B29+$L$25*B30+$M$25*B31+$N$25*B32+$O$25*B33+$P$25*B34+$Q$25*B35+$R$25*B36</f>
+        <f t="shared" ref="F30" si="6">$E$25*B23+$F$25*B24+$G$25*B25+$H$25*B26+$I$25*B27+$J$25*B28+$K$25*B29+$L$25*B30+$M$25*B31+$N$25*B32+$O$25*B33+$P$25*B34+$Q$25*B35+$R$25*B36</f>
         <v>0</v>
       </c>
       <c r="G30" s="6">
@@ -2149,7 +2152,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="24">
         <v>1</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="24">
         <v>1</v>
       </c>
@@ -2176,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="24">
         <v>1</v>
       </c>
@@ -2188,7 +2191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="24">
         <v>1</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="24">
         <v>1</v>
       </c>
@@ -2208,11 +2211,11 @@
         <v>1</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" ref="C34:C36" si="7">B35^2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="C35:C36" si="7">B35^2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="18">
         <v>1</v>
       </c>
@@ -2235,7 +2238,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Лекции/Экзамены/ММПЭ/решение.xlsx
+++ b/Лекции/Экзамены/ММПЭ/решение.xlsx
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,19 +729,19 @@
       </c>
       <c r="B2" s="4">
         <f>D2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14">
         <v>3</v>
       </c>
-      <c r="D2" s="14">
-        <v>3</v>
-      </c>
-      <c r="F2" s="14">
-        <v>4</v>
-      </c>
       <c r="H2" s="18">
         <v>1</v>
       </c>
       <c r="I2" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K2" s="3">
         <f>H2</f>
@@ -763,10 +763,10 @@
       </c>
       <c r="B3" s="4">
         <f>D3</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="14">
         <v>4</v>
@@ -791,10 +791,10 @@
       </c>
       <c r="B4" s="4">
         <f>D4</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" s="14">
         <v>3</v>
@@ -807,7 +807,7 @@
       </c>
       <c r="M4" s="8">
         <f>I2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N4" s="4">
         <v>0</v>
@@ -819,13 +819,13 @@
       </c>
       <c r="B5" s="6">
         <f>D5</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" s="15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K5" s="5">
         <v>0</v>
@@ -838,7 +838,7 @@
       </c>
       <c r="N5" s="6">
         <f>I2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -871,19 +871,19 @@
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <f>B2</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" s="9">
         <f>B3</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="9">
         <f>B4</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" s="6">
         <f>B5</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -906,29 +906,29 @@
       </c>
       <c r="C12" s="8">
         <f>$A$8*M2+$B$8*M3+$C$8*M4+$D$8*M5</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4">
         <f>$A$8*N2+$B$8*N3+$C$8*N4+$D$8*N5</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <f>$A$9*K2+$B$9*K3+$C$9*K4+$D$9*K5</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="9">
         <f>$A$9*L2+$B$9*L3+$C$9*L4+$D$9*L5</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="9">
         <f>$A$9*M2+$B$9*M3+$C$9*M4+$D$9*M5</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D13" s="6">
         <f>$A$9*N2+$B$9*N3+$C$9*N4+$D$9*N5</f>
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -947,25 +947,25 @@
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f>$A$12*A2+$B$12*A3+$C$12*A4+$D$12*A5</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B16" s="4">
         <f>$A$12*B2+$B$12*B3+$C$12*B4+$D$12*B5</f>
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D16" s="12">
         <f>A16*B17-B16*A17</f>
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <f>$A$13*A2+$B$13*A3+$C$13*A5+$D$13*A4</f>
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B17" s="6">
         <f>$A$13*B2+$B$13*B3+$C$13*B5+$D$13*B4</f>
-        <v>178</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -978,21 +978,21 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f>B17</f>
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="B20" s="4">
         <f>A17</f>
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <f>B16</f>
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B21" s="6">
         <f>A16</f>
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1005,21 +1005,21 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f>A20</f>
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="B24" s="4">
         <f>B20*-1</f>
-        <v>-46</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <f>A21*-1</f>
-        <v>-46</v>
+        <v>-26</v>
       </c>
       <c r="B25" s="6">
         <f>B21</f>
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1032,21 +1032,21 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f>A24</f>
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="B28" s="4">
         <f>A25</f>
-        <v>-46</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <f>B24</f>
-        <v>-46</v>
+        <v>-26</v>
       </c>
       <c r="B29" s="6">
         <f>B25</f>
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1059,21 +1059,21 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <f>1/$D$16*A28</f>
-        <v>8.9</v>
+        <v>0.73</v>
       </c>
       <c r="B32" s="4">
         <f>1/$D$16*B28</f>
-        <v>-2.3000000000000003</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <f>1/$D$16*A29</f>
-        <v>-2.3000000000000003</v>
+        <v>-0.13</v>
       </c>
       <c r="B33" s="6">
         <f>1/$D$16*B29</f>
-        <v>0.60000000000000009</v>
+        <v>0.03</v>
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
@@ -1092,7 +1092,7 @@
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <f>$A$12*F2+$B$12*F3+$C$12*F4+$D$12*F5</f>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -1100,7 +1100,7 @@
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <f>$A$13*F2+$B$13*F3+$C$13*F4+$D$13*F5</f>
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -1122,7 +1122,7 @@
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="29">
         <f>A32*A36+B32*A37</f>
-        <v>8.4999999999999432</v>
+        <v>3.0999999999999979</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
@@ -1130,7 +1130,7 @@
     <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <f>A33*A36+B33*A37</f>
-        <v>-1.5</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -1189,7 +1189,7 @@
     <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <f>F2</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" s="9">
         <f>F3</f>
@@ -1201,19 +1201,19 @@
       </c>
       <c r="D47" s="6">
         <f>F5</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G47" s="5">
         <f>A47*A2+B47*A3+C47*A4+D47*A5</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H47" s="6">
         <f>A47*B2+B47*B3+C47*B4+D47*B5</f>
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="J47" s="12">
         <f>G47*A40+H47*A41</f>
-        <v>44.499999999999261</v>
+        <v>84.999999999999957</v>
       </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="D48">
         <f>A47*F2+B47*F3+C47*F4+D47*F5</f>
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="E48" t="s">
         <v>32</v>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B51">
         <f>D48-J47</f>
-        <v>0.50000000000073896</v>
+        <v>13.000000000000043</v>
       </c>
       <c r="D51" t="s">
         <v>43</v>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B52">
         <f>B51/(B43-B44)</f>
-        <v>0.25000000000036948</v>
+        <v>6.5000000000000213</v>
       </c>
       <c r="D52" t="s">
         <v>44</v>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B53" s="26">
         <f>A32*B52</f>
-        <v>2.2250000000032886</v>
+        <v>4.7450000000000152</v>
       </c>
       <c r="D53" t="s">
         <v>49</v>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="B54" s="28">
         <f>B33*B52</f>
-        <v>0.15000000000022171</v>
+        <v>0.19500000000000065</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="B58" s="26">
         <f>A40/SQRT(B53)</f>
-        <v>5.6984129468046731</v>
+        <v>1.4231267612951513</v>
       </c>
       <c r="D58" t="s">
         <v>48</v>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="B59" s="28">
         <f>A41/SQRT(B54)</f>
-        <v>-3.8729833462045544</v>
+        <v>0.90582162731567495</v>
       </c>
     </row>
   </sheetData>
@@ -1474,7 +1474,7 @@
         <v>-1</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" ref="C8:C17" si="0">B8^2</f>
+        <f t="shared" ref="C8:C16" si="0">B8^2</f>
         <v>1</v>
       </c>
       <c r="E8" s="3">
@@ -2134,7 +2134,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" ref="F30:G30" si="6">$E$25*B23+$F$25*B24+$G$25*B25+$H$25*B26+$I$25*B27+$J$25*B28+$K$25*B29+$L$25*B30+$M$25*B31+$N$25*B32+$O$25*B33+$P$25*B34+$Q$25*B35+$R$25*B36</f>
+        <f t="shared" ref="F30" si="6">$E$25*B23+$F$25*B24+$G$25*B25+$H$25*B26+$I$25*B27+$J$25*B28+$K$25*B29+$L$25*B30+$M$25*B31+$N$25*B32+$O$25*B33+$P$25*B34+$Q$25*B35+$R$25*B36</f>
         <v>0</v>
       </c>
       <c r="G30" s="6">
@@ -2208,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" ref="C34:C36" si="7">B35^2</f>
+        <f t="shared" ref="C35:C36" si="7">B35^2</f>
         <v>1</v>
       </c>
     </row>
